--- a/common/util/demo.xlsx
+++ b/common/util/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mixinju/code/go/nbt-mlp/contorller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mixinju/code/go/nbt-mlp/common/util/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD50C5B-895A-814F-9636-A4BC6F2C880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC3441-9B85-A544-B3E8-990E6801F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="860" windowWidth="28100" windowHeight="17000" xr2:uid="{9B890460-1CC5-0544-8F0E-EFF7BEA6F61A}"/>
   </bookViews>
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>米新举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扈书豪</t>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3200421039</v>
+        <v>3200421040</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3200421038</v>
+        <v>3200421041</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
